--- a/_Inputs/WEB.xlsx
+++ b/_Inputs/WEB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - CGIAR\Documents\GitHub\XX_tool\_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6B0709-7203-406D-B8DF-78322CE82A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960BFA79-94D6-423C-93E6-37BA06FE0B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34005" yWindow="1905" windowWidth="17610" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="795" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alliance" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="198">
   <si>
     <t>No</t>
   </si>
@@ -329,12 +329,6 @@
     <t>https://www.thehowardgbuffettfoundation.org/media/</t>
   </si>
   <si>
-    <t>https://ikeafoundation.org/about/</t>
-  </si>
-  <si>
-    <t>https://orgikeafo-shemek.savviihq.com/themes/</t>
-  </si>
-  <si>
     <t>https://ikeafoundation.org/themes/renewable-energy/</t>
   </si>
   <si>
@@ -393,18 +387,6 @@
   </si>
   <si>
     <t>https://parker.org/focus-areas/art</t>
-  </si>
-  <si>
-    <t>https://ikeafoundation.org/values/</t>
-  </si>
-  <si>
-    <t>https://ikeafoundation.org/the-way-we-work/</t>
-  </si>
-  <si>
-    <t>https://ikeafoundation.org/team/</t>
-  </si>
-  <si>
-    <t>https://ikeafoundation.org/our-funding-and-governance/</t>
   </si>
   <si>
     <t>https://ikeafoundation.org/learnings/</t>
@@ -1507,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A2E6FD-DF91-4D3E-9E65-369A6D7BF7C6}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1533,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1544,10 +1526,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1555,10 +1537,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1566,10 +1548,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1577,10 +1559,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1588,10 +1570,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1599,10 +1581,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1610,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1621,10 +1603,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1632,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1646,7 +1628,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1657,7 +1639,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1668,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1676,10 +1658,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1687,10 +1669,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1698,10 +1680,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1709,10 +1691,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1720,10 +1702,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1868,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2246,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2345,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
@@ -2367,7 +2349,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>60</v>
@@ -2771,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2829,7 +2811,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2840,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2851,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2861,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FC901C-CA45-466E-BA77-24C2E0953792}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2879,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2890,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
@@ -2926,7 +2908,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2937,7 +2919,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2948,7 +2930,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2959,37 +2941,37 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>117</v>
@@ -2997,10 +2979,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>118</v>
@@ -3008,10 +2990,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>119</v>
@@ -3019,10 +3001,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>120</v>
@@ -3030,7 +3012,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
@@ -3041,141 +3023,80 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8BC2E2FB-02E0-4FB9-AC17-1ACC58E40D48}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{962444BC-F649-4AC8-B22B-8B8886C56017}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{98CDDA58-B9DB-4665-90E6-9F63A5AA53D2}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{C22344F7-37E1-479C-8DBE-274107F73B8B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{637FC784-5352-4F23-985A-B504BF1FD4A6}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{E3BFA9EA-AB9C-40DD-883C-91EF19D3E118}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{F08F8C30-2090-41EA-8B4D-AAD9BC7D7DE3}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{22995169-DFF2-45F3-8319-64A310767A55}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{E6BF9C36-B432-4360-800B-3C825B4545E2}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{F6C37889-24A8-4674-88CA-E4CFB4D708B5}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{D3840EB0-2EC7-4940-8881-86B1B6B53C4E}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{F67FD489-19F9-478A-9062-BC063415D1D2}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{BF10092A-E86F-4F53-B1A6-B3256E54A877}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{BD82E79E-F64C-4816-B52C-9743FFCF7950}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{98CDDA58-B9DB-4665-90E6-9F63A5AA53D2}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C22344F7-37E1-479C-8DBE-274107F73B8B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{637FC784-5352-4F23-985A-B504BF1FD4A6}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E3BFA9EA-AB9C-40DD-883C-91EF19D3E118}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{F08F8C30-2090-41EA-8B4D-AAD9BC7D7DE3}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{22995169-DFF2-45F3-8319-64A310767A55}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{E6BF9C36-B432-4360-800B-3C825B4545E2}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{BD82E79E-F64C-4816-B52C-9743FFCF7950}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{24AD5EA0-8BB4-4B6A-80D6-15C4B36389CC}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{D6D0C227-2AFA-44EF-A3DC-F5B33EF87356}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{AF6C3507-C118-4915-93C8-6C72311767B1}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{85A181CA-5C86-47FF-818D-D040069D1B67}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{2D693E45-97E4-4D69-9F78-E48082880DA5}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{DB822814-E721-4074-998B-8A04CA72D56C}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{F881A265-65B0-4990-8B9E-1362087A78F3}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{99E8BE04-6107-41C3-AE19-24E7A31D3FE7}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{FC095A3A-101E-4A50-9866-06F986DD87C8}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{A8FEE418-4F24-45D9-920C-98CB4E35A983}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{A78A5AEE-97D0-4775-A307-E764408CB62D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3200,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3214,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3225,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3236,7 +3157,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3244,10 +3165,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3255,10 +3176,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3266,10 +3187,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3277,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3288,10 +3209,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3302,7 +3223,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3310,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3324,7 +3245,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3335,7 +3256,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3343,10 +3264,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3357,7 +3278,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3365,10 +3286,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3376,10 +3297,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3387,10 +3308,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3450,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3461,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3472,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3483,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3494,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3502,10 +3423,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3516,7 +3437,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3527,7 +3448,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3538,7 +3459,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3549,7 +3470,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3560,7 +3481,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3571,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3582,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3593,7 +3514,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3604,7 +3525,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3615,7 +3536,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3626,7 +3547,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3637,7 +3558,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3648,7 +3569,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3659,7 +3580,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3670,7 +3591,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3681,7 +3602,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3692,7 +3613,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3703,7 +3624,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3714,7 +3635,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3725,7 +3646,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3736,7 +3657,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3744,10 +3665,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -3755,10 +3676,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3766,10 +3687,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3777,10 +3698,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3788,10 +3709,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -3799,10 +3720,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3813,7 +3734,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3821,10 +3742,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3832,10 +3753,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
